--- a/biology/Zoologie/Haemulidae/Haemulidae.xlsx
+++ b/biology/Zoologie/Haemulidae/Haemulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haemulidae forment une famille de poissons, de l'ordre des perciformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons souvent massifs (facilement 60 cm de long), principalement tropicaux, et répartis dans les trois bassins océaniques. Leur bouche est assez petite. Leur nageoire dorsale comporte 9-14 épines et 11-26 rayons mous, et leur nageoire anale 3 épines et 6-18 rayons. La colonne vertébrale comporte 26 ou 27 vertèbres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons souvent massifs (facilement 60 cm de long), principalement tropicaux, et répartis dans les trois bassins océaniques. Leur bouche est assez petite. Leur nageoire dorsale comporte 9-14 épines et 11-26 rayons mous, et leur nageoire anale 3 épines et 6-18 rayons. La colonne vertébrale comporte 26 ou 27 vertèbres.
 18 genres sont actuellement répertoriés dans cette famille, divisés en deux sous-familles. Ils comptabilisent au total 133 espèces, dont la plupart font partie des genres Haemulon, Pomadasys et Plectorhinchus.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 octobre 2014)[2] et FishBase                                            (21 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 octobre 2014) et FishBase                                            (21 octobre 2014) :
 sous-famille Haemulinae
 genre Anisotremus Gill, 1861 -- 10 espèces
 genre Boridia Cuvier in Cuvier &amp; Valenciennes, 1830 -- 1 espèce
@@ -566,7 +582,7 @@
 genre Genyatremus Gill, 1862 -- 1 espèce
 genre Parapristipoma Bleeker, 1873 -- 4 espèces
 genre Plectorhinchus Lacepède, 1801 -- 33 espèces
-ITIS      (21 octobre 2014)[4] y ajoute le genre Hapalogenys Richardson, 1844, placé par FishBase dans la famille des Hapalogenyidae.
+ITIS      (21 octobre 2014) y ajoute le genre Hapalogenys Richardson, 1844, placé par FishBase dans la famille des Hapalogenyidae.
 			Anisotremus virginicus
 			Conodon nobilis
 			Diagramma pictum
